--- a/Documentation/Formulaires FPS.xlsx
+++ b/Documentation/Formulaires FPS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cégep Maisonneuve\325 - Projet Réussite CRTP\IPPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlevasseur\Desktop\4D1\backend\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0750365-FD4F-4E0F-A29D-5676188DA561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="645" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modifier la réponse FPS" sheetId="22" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Centre de renseignements - Techniques policières</t>
   </si>
@@ -245,12 +246,15 @@
   </si>
   <si>
     <t>AJOUTER / MODIFIER</t>
+  </si>
+  <si>
+    <t>Enlever la date de mesure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,57 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,6 +571,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,65 +661,38 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,7 +731,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit avec flèche 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D7F1D4-35CC-47A5-8947-637C6928E80C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +789,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit avec flèche 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F137E4D-88DA-44EF-BE7D-37D011E35DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,7 +842,7 @@
         <xdr:cNvPr id="8" name="Connecteur droit avec flèche 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F137E4D-88DA-44EF-BE7D-37D011E35DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -891,7 +895,7 @@
         <xdr:cNvPr id="12" name="Connecteur droit avec flèche 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F137E4D-88DA-44EF-BE7D-37D011E35DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,7 +948,7 @@
         <xdr:cNvPr id="14" name="Connecteur droit avec flèche 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F137E4D-88DA-44EF-BE7D-37D011E35DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -997,7 +1001,7 @@
         <xdr:cNvPr id="16" name="Connecteur droit avec flèche 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F137E4D-88DA-44EF-BE7D-37D011E35DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1050,7 +1054,7 @@
         <xdr:cNvPr id="17" name="Connecteur droit avec flèche 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F137E4D-88DA-44EF-BE7D-37D011E35DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1107,7 @@
         <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F137E4D-88DA-44EF-BE7D-37D011E35DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1156,7 +1160,7 @@
         <xdr:cNvPr id="19" name="Connecteur droit avec flèche 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F137E4D-88DA-44EF-BE7D-37D011E35DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,39 +1460,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Y34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="14" width="11.42578125" style="12"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5546875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1"/>
+    <col min="12" max="14" width="11.44140625" style="12"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:25" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" spans="2:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="2:25" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1499,35 +1503,35 @@
       <c r="I3" s="3"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:25" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="77"/>
-    </row>
-    <row r="5" spans="2:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="54"/>
+    </row>
+    <row r="5" spans="2:25" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
       <c r="D5" s="7"/>
@@ -1536,10 +1540,10 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="43"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="26"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="3" t="s">
         <v>63</v>
@@ -1547,15 +1551,15 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="43"/>
+      <c r="J6" s="26"/>
       <c r="M6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7"/>
@@ -1564,12 +1568,12 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="43"/>
+      <c r="J7" s="26"/>
       <c r="M7" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
       <c r="D8" s="7"/>
@@ -1578,12 +1582,12 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="26"/>
       <c r="M8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
@@ -1592,12 +1596,12 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="43"/>
+      <c r="J9" s="26"/>
       <c r="M9" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
@@ -1606,12 +1610,12 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="26"/>
       <c r="M10" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>4</v>
@@ -1622,9 +1626,9 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1633,9 +1637,9 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="3" t="s">
         <v>5</v>
@@ -1643,15 +1647,15 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="43"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="26"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1660,15 +1664,15 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="43"/>
-      <c r="M14" s="44" t="s">
+      <c r="J14" s="26"/>
+      <c r="M14" s="27" t="s">
         <v>69</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
         <v>6</v>
@@ -1676,19 +1680,19 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="43"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="26"/>
       <c r="M15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="48"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
-    <row r="16" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1697,12 +1701,12 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="43"/>
+      <c r="J16" s="26"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
         <v>7</v>
@@ -1710,15 +1714,15 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="47"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="43"/>
+      <c r="J17" s="26"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="2:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1727,12 +1731,12 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="43"/>
+      <c r="J18" s="26"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="2:17" s="49" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="32" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1748,41 +1752,41 @@
         <v>10</v>
       </c>
       <c r="J19" s="19"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="74"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="43"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="26"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="74"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="15"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1791,9 +1795,9 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="3"/>
@@ -1802,9 +1806,9 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1813,53 +1817,53 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="51"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
-      <c r="C27" s="52"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="51"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="51"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="43"/>
-    </row>
-    <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="13"/>
@@ -1868,33 +1872,33 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="13"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="55"/>
+      <c r="H30" s="64"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="13"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1903,9 +1907,9 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="7"/>
@@ -1914,18 +1918,18 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1942,52 +1946,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30:X30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="4.28515625" style="62" customWidth="1"/>
-    <col min="4" max="12" width="4.28515625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" style="63" customWidth="1"/>
-    <col min="14" max="24" width="4.28515625" style="63" customWidth="1"/>
-    <col min="25" max="25" width="1.5703125" style="63" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="63" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="4.33203125" style="41" customWidth="1"/>
+    <col min="4" max="12" width="4.33203125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" style="42" customWidth="1"/>
+    <col min="14" max="24" width="4.33203125" style="42" customWidth="1"/>
+    <col min="25" max="25" width="1.5546875" style="42" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="42" customWidth="1"/>
+    <col min="27" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="35"/>
-    </row>
-    <row r="3" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+    </row>
+    <row r="3" spans="2:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2013,36 +2019,36 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="22"/>
     </row>
-    <row r="4" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="38"/>
-    </row>
-    <row r="5" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="60"/>
+    </row>
+    <row r="5" spans="2:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="49"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2067,7 +2073,7 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="22"/>
     </row>
-    <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
         <v>4</v>
@@ -2082,20 +2088,20 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="69"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="48"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="22"/>
     </row>
-    <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21"/>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
@@ -2121,7 +2127,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="22"/>
     </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -2136,21 +2142,21 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="69"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="48"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="22"/>
     </row>
-    <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
+    <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="49"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2175,7 +2181,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="22"/>
     </row>
-    <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="7" t="s">
         <v>6</v>
@@ -2190,20 +2196,20 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="69"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="48"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="22"/>
     </row>
-    <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
@@ -2228,8 +2234,11 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="22"/>
-    </row>
-    <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -2244,12 +2253,12 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="48"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -2257,7 +2266,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="22"/>
     </row>
-    <row r="13" spans="2:29" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
@@ -2283,7 +2292,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="22"/>
     </row>
-    <row r="14" spans="2:29" s="49" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" s="32" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -2296,27 +2305,27 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39" t="s">
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39" t="s">
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="19"/>
-      <c r="Z14" s="64"/>
-    </row>
-    <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="43"/>
+    </row>
+    <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="3" t="s">
         <v>11</v>
@@ -2331,20 +2340,20 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="69"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="48"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="22"/>
     </row>
-    <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
@@ -2373,7 +2382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -2386,17 +2395,17 @@
       <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="66"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="61" t="s">
+      <c r="N17" s="46"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="40" t="s">
         <v>14</v>
       </c>
       <c r="U17" s="5"/>
@@ -2405,7 +2414,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="22"/>
     </row>
-    <row r="18" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2430,26 +2439,26 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="22"/>
-      <c r="AC18" s="63" t="s">
+      <c r="AC18" s="42" t="s">
         <v>23</v>
       </c>
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
     </row>
-    <row r="19" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
-      <c r="C19" s="66"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="66"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="5"/>
       <c r="N19" s="20" t="s">
         <v>16</v>
@@ -2479,7 +2488,7 @@
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
     </row>
-    <row r="20" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2492,9 +2501,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -2507,7 +2516,7 @@
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
     </row>
-    <row r="21" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2527,8 +2536,8 @@
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="69"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="48"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -2539,20 +2548,20 @@
       <c r="AC21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE21" s="73" t="s">
+      <c r="AE21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AF21" s="65" t="s">
+      <c r="AF21" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AG21" s="73" t="s">
+      <c r="AG21" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH21" s="65" t="s">
+      <c r="AH21" s="44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2570,8 +2579,8 @@
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="69"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="5" t="s">
         <v>30</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2606,8 +2615,8 @@
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="69"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="48"/>
       <c r="S23" s="5" t="s">
         <v>31</v>
       </c>
@@ -2626,7 +2635,7 @@
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
     </row>
-    <row r="24" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2644,8 +2653,8 @@
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="72"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="51"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -2656,23 +2665,23 @@
       <c r="AC24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE24" s="73" t="s">
+      <c r="AE24" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AF24" s="73" t="s">
+      <c r="AF24" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="AG24" s="65" t="s">
+      <c r="AG24" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AH24" s="65" t="s">
+      <c r="AH24" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AI24" s="65" t="s">
+      <c r="AI24" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2690,12 +2699,12 @@
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="69"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="48"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="22"/>
@@ -2708,7 +2717,7 @@
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
     </row>
-    <row r="26" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2724,19 +2733,19 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="69"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="48"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="22"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
     </row>
-    <row r="27" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2766,14 +2775,14 @@
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
     </row>
-    <row r="28" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="66"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="5" t="s">
         <v>50</v>
       </c>
@@ -2781,31 +2790,31 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="42"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="69"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="40" t="s">
+      <c r="R28" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="41"/>
-      <c r="T28" s="42"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="69"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="40" t="s">
+      <c r="V28" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="41"/>
-      <c r="X28" s="42"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
       <c r="Y28" s="22"/>
-      <c r="AC28" s="63" t="s">
+      <c r="AC28" s="42" t="s">
         <v>61</v>
       </c>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
     </row>
-    <row r="29" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="21"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2818,29 +2827,29 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="40" t="s">
+      <c r="N29" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="42"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="69"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="40" t="s">
+      <c r="R29" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S29" s="41"/>
-      <c r="T29" s="42"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="69"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="40" t="s">
+      <c r="V29" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="W29" s="41"/>
-      <c r="X29" s="42"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="69"/>
       <c r="Y29" s="22"/>
       <c r="AD29" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2853,26 +2862,26 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="69"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="40" t="s">
+      <c r="R30" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="S30" s="41"/>
-      <c r="T30" s="42"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="69"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="75" t="s">
+      <c r="V30" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="W30" s="75"/>
-      <c r="X30" s="75"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
       <c r="Y30" s="22"/>
     </row>
-    <row r="31" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2885,24 +2894,24 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="40" t="s">
+      <c r="N31" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="O31" s="41"/>
-      <c r="P31" s="42"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="69"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="40" t="s">
+      <c r="R31" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="S31" s="41"/>
-      <c r="T31" s="42"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="69"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
       <c r="Y31" s="22"/>
     </row>
-    <row r="32" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2928,7 +2937,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="22"/>
     </row>
-    <row r="33" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2954,31 +2963,31 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="22"/>
     </row>
-    <row r="34" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="27" t="s">
+      <c r="Q34" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="29"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="72"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
@@ -2986,25 +2995,25 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="22"/>
     </row>
-    <row r="35" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="32"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="32"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="75"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
@@ -3012,7 +3021,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="22"/>
     </row>
-    <row r="36" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3038,7 +3047,7 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="22"/>
     </row>
-    <row r="37" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -3064,7 +3073,7 @@
       <c r="X37" s="24"/>
       <c r="Y37" s="25"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3075,7 +3084,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3088,16 +3097,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="D34:F35"/>
-    <mergeCell ref="J34:L35"/>
-    <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="B4:Y4"/>
     <mergeCell ref="B2:Y2"/>
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="V30:X30"/>
@@ -3108,6 +3107,16 @@
     <mergeCell ref="R29:T29"/>
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="J34:L35"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N28:P28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Formulaires FPS.xlsx
+++ b/Documentation/Formulaires FPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlevasseur\Desktop\4D1\backend\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6E6FA-60D8-49BE-9EEE-B0B1F2B8DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB07B860-4D6D-4116-B2ED-7FBAC2B5DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Date de naissance:</t>
   </si>
   <si>
-    <t xml:space="preserve">L'enseignant doit composer un numéro FPS ayant 6 caractères.   </t>
-  </si>
-  <si>
     <t>Le système, lui attribuera comme 7e caractère la lettre H par défaut.</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Par cases à cocher, il choisi les antécédents qu'ils désirent associer à cette personne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'enseignant doit composer un numéro FPS ayant 6 chiffres.   </t>
   </si>
 </sst>
 </file>
@@ -630,6 +630,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,6 +648,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,15 +667,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE35" sqref="AE35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,34 +1344,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50"/>
     </row>
     <row r="3" spans="2:31" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
@@ -1721,7 +1721,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="12"/>
       <c r="AE14" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="12"/>
       <c r="AE15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,13 +1807,13 @@
       <c r="N17" s="3"/>
       <c r="O17" s="10"/>
       <c r="P17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="32"/>
       <c r="T17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -1823,7 +1823,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="12"/>
       <c r="AE17" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
@@ -1842,15 +1842,15 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -1876,13 +1876,13 @@
       <c r="N19" s="3"/>
       <c r="O19" s="32"/>
       <c r="P19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="32"/>
       <c r="T19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -1938,7 +1938,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="32"/>
       <c r="P21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -2373,13 +2373,13 @@
       <c r="N34" s="3"/>
       <c r="O34" s="32"/>
       <c r="P34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="32"/>
       <c r="T34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -2389,7 +2389,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="12"/>
       <c r="AE34" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:34" ht="7.05" customHeight="1" x14ac:dyDescent="0.2">
@@ -2406,18 +2406,18 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
       <c r="U35" s="31"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
       <c r="AA35" s="12"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -2438,13 +2438,13 @@
       <c r="N36" s="3"/>
       <c r="O36" s="32"/>
       <c r="P36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="32"/>
       <c r="T36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U36" s="31"/>
       <c r="V36" s="3"/>
@@ -2505,13 +2505,13 @@
       <c r="N38" s="3"/>
       <c r="O38" s="32"/>
       <c r="P38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="34"/>
       <c r="T38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U38" s="31"/>
       <c r="V38" s="3"/>
@@ -2569,13 +2569,13 @@
       <c r="N40" s="3"/>
       <c r="O40" s="34"/>
       <c r="P40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="34"/>
       <c r="T40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -2600,18 +2600,18 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
       <c r="U41" s="33"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="49"/>
-      <c r="Z41" s="49"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
       <c r="AA41" s="12"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
@@ -2632,13 +2632,13 @@
       <c r="N42" s="3"/>
       <c r="O42" s="34"/>
       <c r="P42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="34"/>
       <c r="T42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U42" s="33"/>
       <c r="V42" s="3"/>
@@ -2696,7 +2696,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="34"/>
       <c r="P44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -2726,18 +2726,18 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="49"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
       <c r="AA45" s="12"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
@@ -2756,18 +2756,18 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
       <c r="R46" s="3"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
       <c r="AA46" s="12"/>
     </row>
     <row r="47" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2784,18 +2784,18 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
       <c r="R47" s="3"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
       <c r="AA47" s="12"/>
     </row>
     <row r="48" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2853,45 +2853,45 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="12"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="57"/>
-      <c r="AI49" s="58"/>
-      <c r="AJ49" s="58"/>
-      <c r="AK49" s="58"/>
-      <c r="AL49" s="57"/>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="58"/>
-      <c r="AO49" s="58"/>
-      <c r="AP49" s="58"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="46"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
     </row>
     <row r="50" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="11"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
+      <c r="E50" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="L50" s="51"/>
-      <c r="M50" s="52"/>
+      <c r="K50" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="54"/>
+      <c r="M50" s="55"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="S50" s="51"/>
-      <c r="T50" s="52"/>
+      <c r="R50" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="S50" s="54"/>
+      <c r="T50" s="55"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -2899,39 +2899,39 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="12"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="57"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="58"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="57"/>
-      <c r="AM50" s="58"/>
-      <c r="AN50" s="58"/>
-      <c r="AO50" s="58"/>
-      <c r="AP50" s="58"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="46"/>
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="47"/>
     </row>
     <row r="51" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="11"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="55"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="58"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="55"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="58"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -2939,18 +2939,18 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="12"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="58"/>
-      <c r="AJ51" s="58"/>
-      <c r="AK51" s="58"/>
-      <c r="AL51" s="57"/>
-      <c r="AM51" s="58"/>
-      <c r="AN51" s="58"/>
-      <c r="AO51" s="58"/>
-      <c r="AP51" s="58"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="47"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="46"/>
+      <c r="AM51" s="47"/>
+      <c r="AN51" s="47"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="47"/>
     </row>
     <row r="52" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="11"/>
@@ -2979,18 +2979,18 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="12"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="58"/>
-      <c r="AJ52" s="58"/>
-      <c r="AK52" s="58"/>
-      <c r="AL52" s="57"/>
-      <c r="AM52" s="58"/>
-      <c r="AN52" s="58"/>
-      <c r="AO52" s="58"/>
-      <c r="AP52" s="58"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="47"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="47"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="47"/>
+      <c r="AL52" s="46"/>
+      <c r="AM52" s="47"/>
+      <c r="AN52" s="47"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="47"/>
     </row>
     <row r="53" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="13"/>
@@ -3044,6 +3044,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E50:G51"/>
+    <mergeCell ref="K50:M51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R35:T35"/>
     <mergeCell ref="B2:AA2"/>
     <mergeCell ref="W47:Z47"/>
     <mergeCell ref="W46:Z46"/>
@@ -3057,15 +3066,6 @@
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="R41:T41"/>
     <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="E50:G51"/>
-    <mergeCell ref="K50:M51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R35:T35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
